--- a/homework_2/数据字段.xlsx
+++ b/homework_2/数据字段.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Document\data_mining\homework_2\Dataset\KKBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\DataMining\homework_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="train.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
   <si>
     <t>msno</t>
   </si>
@@ -111,15 +111,6 @@
   </si>
   <si>
     <t>source_screen_name: name of the layout a user sees.</t>
-  </si>
-  <si>
-    <t>source_system_tab: the name of the tab where the event was triggered. System tabs are used to categorize KKBOX mobile apps functions. For example, tab my library contains functions to manipulate the local storage, and tab search contains functions relating to search.</t>
-  </si>
-  <si>
-    <t>source_type: an entry point a user first plays music on mobile apps. An entry point could be album, online-playlist, song .. etc.</t>
-  </si>
-  <si>
-    <t>target: this is the target variable. target=1 means there are recurring listening event(s) triggered within a month after the user’s very first observable listening event, target=0 otherwise .</t>
   </si>
   <si>
     <t>name</t>
@@ -232,9 +223,6 @@
   </si>
   <si>
     <t>oTi7oINPX+rxoGp+3O6llSltQTl80jDqHoULfRoLcG4=</t>
-  </si>
-  <si>
-    <t>林俊傑 (JJ Lin)</t>
   </si>
   <si>
     <t>JJ Lin</t>
@@ -404,6 +392,30 @@
   <si>
     <t>genre_ids: genre category. 
 Some songs have multiple genres and they are separated by |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_system_tab: the name of the tab where the event was triggered. 
+System tabs are used to categorize KKBOX mobile apps functions. For example, tab my library contains functions to manipulate the local storage, and tab search contains functions relating to search.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type: an entry point a user first plays music on mobile apps.
+ An entry point could be album, online-playlist, song .. etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target: this is the target variable. target=1 means there are recurring listening event(s) 
+triggered within a month after the user’s very first observable listening event, target=0 otherwise .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：这是目标变量。 target = 1意味着有重复的监听事件（s）
+在用户第一次可观察的监听事件之后的一个月内触发，否则target = 0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林俊傑 (JJ Lin)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,10 +761,11 @@
     <col min="2" max="2" width="50.125" customWidth="1"/>
     <col min="3" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -798,7 +811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -817,11 +830,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -844,7 +857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -863,11 +876,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -886,11 +899,14 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -910,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -930,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -953,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -984,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,27 +1020,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>247640</v>
@@ -1033,13 +1049,13 @@
         <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1047,7 +1063,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>197328</v>
@@ -1056,13 +1072,13 @@
         <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>31</v>
@@ -1070,7 +1086,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>231781</v>
@@ -1079,7 +1095,7 @@
         <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>31</v>
@@ -1087,7 +1103,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>273554</v>
@@ -1096,13 +1112,13 @@
         <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1110,7 +1126,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>140329</v>
@@ -1119,13 +1135,13 @@
         <v>726</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>52</v>
@@ -1133,22 +1149,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>235520</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -1156,7 +1172,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>226220</v>
@@ -1165,10 +1181,10 @@
         <v>458</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1176,7 +1192,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>276793</v>
@@ -1185,13 +1201,13 @@
         <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1199,7 +1215,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>228623</v>
@@ -1208,13 +1224,13 @@
         <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1227,32 +1243,32 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I13" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1283,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1306,7 +1322,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1324,12 +1340,12 @@
         <v>20170920</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1347,12 +1363,12 @@
         <v>20170622</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1370,12 +1386,12 @@
         <v>20170712</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1393,12 +1409,12 @@
         <v>20150907</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1416,12 +1432,12 @@
         <v>20170613</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -1430,7 +1446,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1442,12 +1458,12 @@
         <v>20171006</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1467,7 +1483,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1487,7 +1503,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1532,109 +1548,109 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1644,12 +1660,12 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
